--- a/output/0/tRNA-Asp-GTC-2-11.xlsx
+++ b/output/0/tRNA-Asp-GTC-2-11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>chr17</t>
   </si>
@@ -264,36 +264,6 @@
   </si>
   <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>8125925</t>
-  </si>
-  <si>
-    <t>8125948</t>
-  </si>
-  <si>
-    <t>8125928</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CTGCTTCCTGACTTCCTTCC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>2% (18)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 2%, Moreno-Mateos: 80%</t>
   </si>
 </sst>
 </file>
@@ -338,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -993,65 +963,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
